--- a/tables/genome_scope_checked.xlsx
+++ b/tables/genome_scope_checked.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstengotting/GoogleDriveLab/Figures/EscoEvoGenomics/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F568D4-653A-9544-AC60-98D776266567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D13E2-E1F7-6249-AED0-2B21324A6EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="9200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="9560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genome_scope_checked" sheetId="1" r:id="rId1"/>
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>genome</t>
   </si>
@@ -72,6 +82,12 @@
   </si>
   <si>
     <t>trying to rerun kat with --high 1000 to replicate genomescope parameters produced the same genome size estimate</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
@@ -912,15 +928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +955,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>712</v>
       </c>
@@ -959,8 +981,16 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>AVERAGE(B2,C2)</f>
+        <v>23590936.5</v>
+      </c>
+      <c r="H2">
+        <f>ROUNDUP(G2/1000000, 2)</f>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>721</v>
       </c>
@@ -976,8 +1006,16 @@
       <c r="E3">
         <v>26713438</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>AVERAGE(B3,C3)</f>
+        <v>26973949</v>
+      </c>
+      <c r="H3">
+        <f>ROUNDUP(G3/1000000, 2)</f>
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>726</v>
       </c>
@@ -993,8 +1031,16 @@
       <c r="E4">
         <v>19036809</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="0">AVERAGE(B4,C4)</f>
+        <v>18851833.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" si="1">ROUNDUP(G4/1000000, 2)</f>
+        <v>18.860000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>731</v>
       </c>
@@ -1013,8 +1059,16 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>22126717.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>22.130000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>736</v>
       </c>
@@ -1030,8 +1084,16 @@
       <c r="E6">
         <v>26488500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>25584810.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>751</v>
       </c>
@@ -1050,8 +1112,16 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>23701041.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1065</v>
       </c>
@@ -1070,8 +1140,16 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>18985434.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>18.990000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2046</v>
       </c>
@@ -1087,8 +1165,16 @@
       <c r="E9">
         <v>23391214</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>23685844</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2047</v>
       </c>
@@ -1104,8 +1190,16 @@
       <c r="E10">
         <v>24841431</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>24716353.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>24.720000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1121,8 +1215,16 @@
       <c r="E11">
         <v>25519446</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>25255218.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +1240,16 @@
       <c r="E12">
         <v>25275918</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>25540223.5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1155,8 +1265,16 @@
       <c r="E13">
         <v>29824606</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>27911390.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1290,16 @@
       <c r="E14">
         <v>29231408</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>28807443</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>28.810000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1188,6 +1314,14 @@
       </c>
       <c r="E15">
         <v>28518760</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>28465179.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>28.470000000000002</v>
       </c>
     </row>
   </sheetData>
